--- a/hisab.xlsx
+++ b/hisab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salim\Desktop\Shamim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB5C615-FA0D-4E8B-A6AE-54C8181B2366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A79D7AC-DB9B-4783-9C0C-F346CB0E73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1935" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
